--- a/Code/Results/Cases/Case_3_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.175214039369678</v>
+        <v>1.992518924015428</v>
       </c>
       <c r="C2">
-        <v>0.9659910197282215</v>
+        <v>0.2843258085016487</v>
       </c>
       <c r="D2">
-        <v>0.02528233028852966</v>
+        <v>0.05989484274526546</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.917760698865521</v>
+        <v>1.703210617878142</v>
       </c>
       <c r="G2">
-        <v>0.0007804985188650804</v>
+        <v>0.002481720555312002</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.98373273310456</v>
+        <v>1.222840110520707</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4107859978048793</v>
+        <v>0.303207780257253</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7253632092114763</v>
+        <v>1.482901876590123</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.611082194444862</v>
+        <v>1.85173105524774</v>
       </c>
       <c r="C3">
-        <v>0.8326039872598585</v>
+        <v>0.2474039262088752</v>
       </c>
       <c r="D3">
-        <v>0.02674129898671751</v>
+        <v>0.06064901790708532</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.715173878353454</v>
+        <v>1.665365419445251</v>
       </c>
       <c r="G3">
-        <v>0.0007892879183016016</v>
+        <v>0.002487219738402047</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9089650976360062</v>
+        <v>1.213911196093122</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3605358711139104</v>
+        <v>0.2921938689453896</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7753985618272381</v>
+        <v>1.501981537002482</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.27006939066564</v>
+        <v>1.766342198679638</v>
       </c>
       <c r="C4">
-        <v>0.7519026487975111</v>
+        <v>0.224743570430519</v>
       </c>
       <c r="D4">
-        <v>0.02772587199035925</v>
+        <v>0.06114221135523046</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.595527627262697</v>
+        <v>1.643352727609098</v>
       </c>
       <c r="G4">
-        <v>0.0007948234597502657</v>
+        <v>0.002490773090476534</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8657262284869987</v>
+        <v>1.209234862149444</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.330379327927588</v>
+        <v>0.2856215616866535</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8077600627432027</v>
+        <v>1.514309201118099</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.13226332053938</v>
+        <v>1.731809271615646</v>
       </c>
       <c r="C5">
-        <v>0.719266762551257</v>
+        <v>0.2155110013733577</v>
       </c>
       <c r="D5">
-        <v>0.02814777323922435</v>
+        <v>0.0613507361403105</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.547837956519331</v>
+        <v>1.63468826886627</v>
       </c>
       <c r="G5">
-        <v>0.0007971159725058902</v>
+        <v>0.002492265731465926</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8487148444896349</v>
+        <v>1.207530896178753</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3182453639557394</v>
+        <v>0.2829909156341586</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8213391200435574</v>
+        <v>1.519486457241012</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.109445511906188</v>
+        <v>1.726090985595306</v>
       </c>
       <c r="C6">
-        <v>0.7138613310646917</v>
+        <v>0.2139780215191536</v>
       </c>
       <c r="D6">
-        <v>0.02821903384285207</v>
+        <v>0.06138581628371576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.539980112991344</v>
+        <v>1.633267959228291</v>
       </c>
       <c r="G6">
-        <v>0.0007974989118344856</v>
+        <v>0.002492516283301176</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8459251684623297</v>
+        <v>1.207260105409681</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3162393345781851</v>
+        <v>0.2825569686676204</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8236169834701563</v>
+        <v>1.520355403262016</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.268206434476951</v>
+        <v>1.7658754099362</v>
       </c>
       <c r="C7">
-        <v>0.7514615592209282</v>
+        <v>0.2246190508435575</v>
       </c>
       <c r="D7">
-        <v>0.02773148021165994</v>
+        <v>0.06114499308766597</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.59488030478343</v>
+        <v>1.643234639792212</v>
       </c>
       <c r="G7">
-        <v>0.000794854226306714</v>
+        <v>0.002490793039834181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8654944203726913</v>
+        <v>1.209211066630779</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3302150826939965</v>
+        <v>0.2855858913435725</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8079416356995601</v>
+        <v>1.514378401936817</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.979467685673114</v>
+        <v>1.943755136022844</v>
       </c>
       <c r="C8">
-        <v>0.9197181912617225</v>
+        <v>0.2715926321211271</v>
       </c>
       <c r="D8">
-        <v>0.0257659192250852</v>
+        <v>0.06014861069445843</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.84684526774349</v>
+        <v>1.689906243380435</v>
       </c>
       <c r="G8">
-        <v>0.0007835014428486002</v>
+        <v>0.002483580066334891</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9573597028904288</v>
+        <v>1.21959350665329</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.393302286578546</v>
+        <v>0.2993705508612692</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7422619881477033</v>
+        <v>1.489353125300713</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.426424475359681</v>
+        <v>2.301048416411447</v>
       </c>
       <c r="C9">
-        <v>1.261760217030997</v>
+        <v>0.3638246191948724</v>
       </c>
       <c r="D9">
-        <v>0.02269957342741691</v>
+        <v>0.05843514426016583</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.384896521290997</v>
+        <v>1.791241835302444</v>
       </c>
       <c r="G9">
-        <v>0.0007622485038951574</v>
+        <v>0.00247083140511295</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.161813491372598</v>
+        <v>1.246397714740482</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.52356599114988</v>
+        <v>0.3279240392201217</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6275160312604839</v>
+        <v>1.445158510515292</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.536479832705538</v>
+        <v>2.568881467237702</v>
       </c>
       <c r="C10">
-        <v>1.524526869121075</v>
+        <v>0.431719295250673</v>
       </c>
       <c r="D10">
-        <v>0.02106216629815094</v>
+        <v>0.05732474768618445</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.81695836916532</v>
+        <v>1.871821087959773</v>
       </c>
       <c r="G10">
-        <v>0.0007471058822732776</v>
+        <v>0.002462305994638231</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.331777034746707</v>
+        <v>1.270090948852413</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6248634998609219</v>
+        <v>0.3498494415566569</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5534174956974809</v>
+        <v>1.415688208138867</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.05563725393813</v>
+        <v>2.691921100182128</v>
       </c>
       <c r="C11">
-        <v>1.647636202449974</v>
+        <v>0.4626485606024744</v>
       </c>
       <c r="D11">
-        <v>0.02048740491980894</v>
+        <v>0.05685226367103269</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.024102286934635</v>
+        <v>1.909841806573098</v>
       </c>
       <c r="G11">
-        <v>0.0007402823154987314</v>
+        <v>0.002458608052386207</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.414676932688252</v>
+        <v>1.281754116621698</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6725761870013969</v>
+        <v>0.3600339627088402</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5223551109278262</v>
+        <v>1.402938094530562</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.254654605510723</v>
+        <v>2.73868825859654</v>
       </c>
       <c r="C12">
-        <v>1.694874640660828</v>
+        <v>0.4743679225598498</v>
       </c>
       <c r="D12">
-        <v>0.02029790500948181</v>
+        <v>0.05667807693744109</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.10432090560397</v>
+        <v>1.924437998398105</v>
       </c>
       <c r="G12">
-        <v>0.0007377041310499069</v>
+        <v>0.002457233502821022</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.446997930579215</v>
+        <v>1.286299156235586</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6909186519417858</v>
+        <v>0.3639211638809314</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5110156416573375</v>
+        <v>1.398204798058202</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.211678155063851</v>
+        <v>2.728608310921118</v>
       </c>
       <c r="C13">
-        <v>1.684671588748188</v>
+        <v>0.4718436179906007</v>
       </c>
       <c r="D13">
-        <v>0.02033739977970939</v>
+        <v>0.05671538004924059</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.086960882769546</v>
+        <v>1.921285578666868</v>
       </c>
       <c r="G13">
-        <v>0.0007382591957471041</v>
+        <v>0.002457528392215766</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.439993523622348</v>
+        <v>1.285314568613458</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6869553582247647</v>
+        <v>0.3630826227809507</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5134382286777921</v>
+        <v>1.399219968772115</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.071959560839389</v>
+        <v>2.695765149085389</v>
       </c>
       <c r="C14">
-        <v>1.651509458178055</v>
+        <v>0.4636125719678148</v>
       </c>
       <c r="D14">
-        <v>0.0204712271327665</v>
+        <v>0.05683783814690102</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.030664705966501</v>
+        <v>1.911038651044493</v>
       </c>
       <c r="G14">
-        <v>0.0007400701137386406</v>
+        <v>0.002458494451546115</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.417316603662613</v>
+        <v>1.282125458543163</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6740794777377914</v>
+        <v>0.3603531513863487</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5214134571389053</v>
+        <v>1.402546778352686</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.98670585412691</v>
+        <v>2.67567057846145</v>
       </c>
       <c r="C15">
-        <v>1.631280788134347</v>
+        <v>0.4585717712248538</v>
       </c>
       <c r="D15">
-        <v>0.02055698622418944</v>
+        <v>0.05691346477505377</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.996421349203985</v>
+        <v>1.904788040964007</v>
       </c>
       <c r="G15">
-        <v>0.0007411799875250979</v>
+        <v>0.002459089543681253</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.403551313667123</v>
+        <v>1.280188800250599</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6662296875833675</v>
+        <v>0.3586852571249324</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5263550027006261</v>
+        <v>1.404596919932622</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.502868722135531</v>
+        <v>2.560864876533913</v>
       </c>
       <c r="C16">
-        <v>1.516561994104677</v>
+        <v>0.4296989450795081</v>
       </c>
       <c r="D16">
-        <v>0.0211034528836116</v>
+        <v>0.05735628576199758</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.803655146488495</v>
+        <v>1.869364005046663</v>
       </c>
       <c r="G16">
-        <v>0.0007475528294344704</v>
+        <v>0.002462551279506398</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.32648201919244</v>
+        <v>1.269346643129737</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.621781500501001</v>
+        <v>0.3491881186360928</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5555042447035277</v>
+        <v>1.416534706927862</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.209940314716732</v>
+        <v>2.490744325430228</v>
       </c>
       <c r="C17">
-        <v>1.447171741066484</v>
+        <v>0.4119981752739363</v>
       </c>
       <c r="D17">
-        <v>0.02148469945352716</v>
+        <v>0.05763632972944777</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.688282955331516</v>
+        <v>1.847983702904315</v>
       </c>
       <c r="G17">
-        <v>0.0007514765874688524</v>
+        <v>0.002464721018958822</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.280716378656294</v>
+        <v>1.262922841127462</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5949587562754743</v>
+        <v>0.3434160464378948</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5740924514353765</v>
+        <v>1.424026578883947</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.042765129420047</v>
+        <v>2.450525762471557</v>
       </c>
       <c r="C18">
-        <v>1.407589682075013</v>
+        <v>0.4018212165735804</v>
       </c>
       <c r="D18">
-        <v>0.02171973984092546</v>
+        <v>0.05780047355884221</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.622904172163601</v>
+        <v>1.835814641036592</v>
       </c>
       <c r="G18">
-        <v>0.0007537397781617176</v>
+        <v>0.002465985975955076</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.254910147867932</v>
+        <v>1.259311268107822</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5796819327799625</v>
+        <v>0.3401159043852005</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5850299977156155</v>
+        <v>1.42839742477365</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.986376571501978</v>
+        <v>2.436927782378234</v>
       </c>
       <c r="C19">
-        <v>1.39424148382426</v>
+        <v>0.3983761442903528</v>
       </c>
       <c r="D19">
-        <v>0.02180192407579895</v>
+        <v>0.05785657592907256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.600929240487829</v>
+        <v>1.831716375326408</v>
       </c>
       <c r="G19">
-        <v>0.0007545072472544143</v>
+        <v>0.002466417189638861</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.246257841093666</v>
+        <v>1.258102710029192</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5745342494958692</v>
+        <v>0.3390019257954009</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5887743264464618</v>
+        <v>1.429887901755976</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.24098491077325</v>
+        <v>2.498197076252666</v>
       </c>
       <c r="C20">
-        <v>1.454523647953522</v>
+        <v>0.4138820265814047</v>
       </c>
       <c r="D20">
-        <v>0.02144245946397305</v>
+        <v>0.05760620056286569</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.700461345486417</v>
+        <v>1.850246375035482</v>
       </c>
       <c r="G20">
-        <v>0.0007510582639825847</v>
+        <v>0.002464488290187892</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.285533851589449</v>
+        <v>1.263598043472939</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5977981920039781</v>
+        <v>0.3440284421048148</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5720879442636218</v>
+        <v>1.423222664645564</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.112929186197562</v>
+        <v>2.705407223693385</v>
       </c>
       <c r="C21">
-        <v>1.661232243735867</v>
+        <v>0.4660300296580431</v>
       </c>
       <c r="D21">
-        <v>0.02043112232056998</v>
+        <v>0.05680174047628483</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.047149802633157</v>
+        <v>1.91404301433073</v>
       </c>
       <c r="G21">
-        <v>0.0007395380782594826</v>
+        <v>0.00245820999815311</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.423951068385961</v>
+        <v>1.28305868178677</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6778536334779375</v>
+        <v>0.3611540321805791</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5190590817401315</v>
+        <v>1.401567033869028</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.697142586931307</v>
+        <v>2.841850406931485</v>
       </c>
       <c r="C22">
-        <v>1.800000890147317</v>
+        <v>0.5001536695018558</v>
       </c>
       <c r="D22">
-        <v>0.01993641964880055</v>
+        <v>0.0563035837617214</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.28423862945877</v>
+        <v>1.956896325101155</v>
       </c>
       <c r="G22">
-        <v>0.000732040449698331</v>
+        <v>0.002454256974226179</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.519899671412418</v>
+        <v>1.29652660904344</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7317985203665529</v>
+        <v>0.372524757584614</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4868929380496994</v>
+        <v>1.387967209947895</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.383882305758164</v>
+        <v>2.768934160204878</v>
       </c>
       <c r="C23">
-        <v>1.725562223490329</v>
+        <v>0.4819371235270182</v>
       </c>
       <c r="D23">
-        <v>0.02018385055842842</v>
+        <v>0.0565669204958219</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.156644434212325</v>
+        <v>1.933917929597698</v>
       </c>
       <c r="G23">
-        <v>0.0007360405157044337</v>
+        <v>0.002456353082363958</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.468141672568592</v>
+        <v>1.289269566712818</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7028437726006871</v>
+        <v>0.3664395956533326</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.503816812288477</v>
+        <v>1.395174872479814</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.226945835819208</v>
+        <v>2.494827392862248</v>
       </c>
       <c r="C24">
-        <v>1.451198888903889</v>
+        <v>0.4130303391831944</v>
       </c>
       <c r="D24">
-        <v>0.0214615070439379</v>
+        <v>0.0576198121725966</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.694952554256588</v>
+        <v>1.849223038773687</v>
       </c>
       <c r="G24">
-        <v>0.0007512473647997993</v>
+        <v>0.00246459345197189</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.283354308243545</v>
+        <v>1.263292530552562</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5965140377533231</v>
+        <v>0.343751521046002</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5729934034938182</v>
+        <v>1.423585916000008</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.027943757762841</v>
+        <v>2.203467285830527</v>
       </c>
       <c r="C25">
-        <v>1.16754268480895</v>
+        <v>0.3388546898735285</v>
       </c>
       <c r="D25">
-        <v>0.02343196869958319</v>
+        <v>0.05887274697538913</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.23367937781417</v>
+        <v>1.762762380218931</v>
       </c>
       <c r="G25">
-        <v>0.0007679037072329573</v>
+        <v>0.002474131843133928</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.103428226760087</v>
+        <v>1.238449218272478</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4874711857437433</v>
+        <v>0.3200346550794251</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.656896866448605</v>
+        <v>1.45658939354789</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.992518924015428</v>
+        <v>4.175214039369564</v>
       </c>
       <c r="C2">
-        <v>0.2843258085016487</v>
+        <v>0.9659910197281363</v>
       </c>
       <c r="D2">
-        <v>0.05989484274526546</v>
+        <v>0.02528233028851901</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.703210617878142</v>
+        <v>1.917760698865507</v>
       </c>
       <c r="G2">
-        <v>0.002481720555312002</v>
+        <v>0.0007804985187555679</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.222840110520707</v>
+        <v>0.9837327331045742</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.303207780257253</v>
+        <v>0.4107859978048936</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.482901876590123</v>
+        <v>0.7253632092115154</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.85173105524774</v>
+        <v>3.611082194445032</v>
       </c>
       <c r="C3">
-        <v>0.2474039262088752</v>
+        <v>0.8326039872600006</v>
       </c>
       <c r="D3">
-        <v>0.06064901790708532</v>
+        <v>0.02674129898678679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.665365419445251</v>
+        <v>1.715173878353454</v>
       </c>
       <c r="G3">
-        <v>0.002487219738402047</v>
+        <v>0.0007892879182812018</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.213911196093122</v>
+        <v>0.9089650976360062</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2921938689453896</v>
+        <v>0.3605358711138251</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.501981537002482</v>
+        <v>0.7753985618272985</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.766342198679638</v>
+        <v>3.27006939066564</v>
       </c>
       <c r="C4">
-        <v>0.224743570430519</v>
+        <v>0.7519026487974827</v>
       </c>
       <c r="D4">
-        <v>0.06114221135523046</v>
+        <v>0.0277258719904605</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.643352727609098</v>
+        <v>1.595527627262683</v>
       </c>
       <c r="G4">
-        <v>0.002490773090476534</v>
+        <v>0.0007948234597786646</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.209234862149444</v>
+        <v>0.8657262284870058</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2856215616866535</v>
+        <v>0.3303793279275737</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.514309201118099</v>
+        <v>0.807760062743192</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.731809271615646</v>
+        <v>3.13226332053938</v>
       </c>
       <c r="C5">
-        <v>0.2155110013733577</v>
+        <v>0.7192667625512286</v>
       </c>
       <c r="D5">
-        <v>0.0613507361403105</v>
+        <v>0.02814777323917994</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.63468826886627</v>
+        <v>1.547837956519345</v>
       </c>
       <c r="G5">
-        <v>0.002492265731465926</v>
+        <v>0.0007971159725041078</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.207530896178753</v>
+        <v>0.8487148444896278</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2829909156341586</v>
+        <v>0.3182453639558247</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.519486457241012</v>
+        <v>0.8213391200435467</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.726090985595306</v>
+        <v>3.109445511906358</v>
       </c>
       <c r="C6">
-        <v>0.2139780215191536</v>
+        <v>0.7138613310644644</v>
       </c>
       <c r="D6">
-        <v>0.06138581628371576</v>
+        <v>0.02821903384293378</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.633267959228291</v>
+        <v>1.539980112991344</v>
       </c>
       <c r="G6">
-        <v>0.002492516283301176</v>
+        <v>0.0007974989118904041</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.207260105409681</v>
+        <v>0.8459251684623439</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2825569686676204</v>
+        <v>0.3162393345781851</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.520355403262016</v>
+        <v>0.823616983470167</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.7658754099362</v>
+        <v>3.268206434476895</v>
       </c>
       <c r="C7">
-        <v>0.2246190508435575</v>
+        <v>0.7514615592207861</v>
       </c>
       <c r="D7">
-        <v>0.06114499308766597</v>
+        <v>0.02773148021185712</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.643234639792212</v>
+        <v>1.59488030478343</v>
       </c>
       <c r="G7">
-        <v>0.002490793039834181</v>
+        <v>0.0007948542263794584</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.209211066630779</v>
+        <v>0.8654944203726913</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2855858913435725</v>
+        <v>0.3302150826940959</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.514378401936817</v>
+        <v>0.8079416356995459</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.943755136022844</v>
+        <v>3.979467685673285</v>
       </c>
       <c r="C8">
-        <v>0.2715926321211271</v>
+        <v>0.9197181912616372</v>
       </c>
       <c r="D8">
-        <v>0.06014861069445843</v>
+        <v>0.02576591922519</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.689906243380435</v>
+        <v>1.84684526774349</v>
       </c>
       <c r="G8">
-        <v>0.002483580066334891</v>
+        <v>0.0007835014428471937</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.21959350665329</v>
+        <v>0.957359702890443</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2993705508612692</v>
+        <v>0.3933022865786171</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.489353125300713</v>
+        <v>0.7422619881476251</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.301048416411447</v>
+        <v>5.426424475359738</v>
       </c>
       <c r="C9">
-        <v>0.3638246191948724</v>
+        <v>1.261760217030883</v>
       </c>
       <c r="D9">
-        <v>0.05843514426016583</v>
+        <v>0.02269957342750928</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.791241835302444</v>
+        <v>2.384896521290983</v>
       </c>
       <c r="G9">
-        <v>0.00247083140511295</v>
+        <v>0.0007622485038921479</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.246397714740482</v>
+        <v>1.161813491372584</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3279240392201217</v>
+        <v>0.5235659911498658</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.445158510515292</v>
+        <v>0.6275160312603916</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.568881467237702</v>
+        <v>6.536479832705481</v>
       </c>
       <c r="C10">
-        <v>0.431719295250673</v>
+        <v>1.524526869121246</v>
       </c>
       <c r="D10">
-        <v>0.05732474768618445</v>
+        <v>0.02106216629825397</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.871821087959773</v>
+        <v>2.816958369165349</v>
       </c>
       <c r="G10">
-        <v>0.002462305994638231</v>
+        <v>0.0007471058822158123</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.270090948852413</v>
+        <v>1.331777034746722</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3498494415566569</v>
+        <v>0.6248634998609504</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.415688208138867</v>
+        <v>0.5534174956975306</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.691921100182128</v>
+        <v>7.055637253938187</v>
       </c>
       <c r="C11">
-        <v>0.4626485606024744</v>
+        <v>1.647636202449974</v>
       </c>
       <c r="D11">
-        <v>0.05685226367103269</v>
+        <v>0.02048740491979117</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.909841806573098</v>
+        <v>3.024102286934635</v>
       </c>
       <c r="G11">
-        <v>0.002458608052386207</v>
+        <v>0.0007402823154985961</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.281754116621698</v>
+        <v>1.414676932688252</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3600339627088402</v>
+        <v>0.6725761870013827</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.402938094530562</v>
+        <v>0.5223551109278262</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.73868825859654</v>
+        <v>7.254654605510893</v>
       </c>
       <c r="C12">
-        <v>0.4743679225598498</v>
+        <v>1.694874640661055</v>
       </c>
       <c r="D12">
-        <v>0.05667807693744109</v>
+        <v>0.02029790500947826</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.924437998398105</v>
+        <v>3.104320905603942</v>
       </c>
       <c r="G12">
-        <v>0.002457233502821022</v>
+        <v>0.0007377041309948436</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.286299156235586</v>
+        <v>1.446997930579215</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3639211638809314</v>
+        <v>0.6909186519418284</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.398204798058202</v>
+        <v>0.5110156416573375</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.728608310921118</v>
+        <v>7.211678155064021</v>
       </c>
       <c r="C13">
-        <v>0.4718436179906007</v>
+        <v>1.684671588748415</v>
       </c>
       <c r="D13">
-        <v>0.05671538004924059</v>
+        <v>0.02033739977957794</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.921285578666868</v>
+        <v>3.086960882769603</v>
       </c>
       <c r="G13">
-        <v>0.002457528392215766</v>
+        <v>0.0007382591958615801</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.285314568613458</v>
+        <v>1.439993523622334</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3630826227809507</v>
+        <v>0.6869553582247931</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.399219968772115</v>
+        <v>0.5134382286777495</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.695765149085389</v>
+        <v>7.071959560839616</v>
       </c>
       <c r="C14">
-        <v>0.4636125719678148</v>
+        <v>1.651509458177884</v>
       </c>
       <c r="D14">
-        <v>0.05683783814690102</v>
+        <v>0.02047122713286242</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.911038651044493</v>
+        <v>3.030664705966529</v>
       </c>
       <c r="G14">
-        <v>0.002458494451546115</v>
+        <v>0.0007400701137979738</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.282125458543163</v>
+        <v>1.417316603662613</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3603531513863487</v>
+        <v>0.6740794777378056</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.402546778352686</v>
+        <v>0.5214134571388911</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.67567057846145</v>
+        <v>6.986705854127138</v>
       </c>
       <c r="C15">
-        <v>0.4585717712248538</v>
+        <v>1.631280788134632</v>
       </c>
       <c r="D15">
-        <v>0.05691346477505377</v>
+        <v>0.02055698622384128</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.904788040964007</v>
+        <v>2.996421349203985</v>
       </c>
       <c r="G15">
-        <v>0.002459089543681253</v>
+        <v>0.0007411799875177696</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.280188800250599</v>
+        <v>1.403551313667123</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3586852571249324</v>
+        <v>0.6662296875834102</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.404596919932622</v>
+        <v>0.5263550027006829</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.560864876533913</v>
+        <v>6.502868722135531</v>
       </c>
       <c r="C16">
-        <v>0.4296989450795081</v>
+        <v>1.51656199410462</v>
       </c>
       <c r="D16">
-        <v>0.05735628576199758</v>
+        <v>0.02110345288349791</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.869364005046663</v>
+        <v>2.803655146488524</v>
       </c>
       <c r="G16">
-        <v>0.002462551279506398</v>
+        <v>0.0007475528294892489</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.269346643129737</v>
+        <v>1.326482019192426</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3491881186360928</v>
+        <v>0.6217815005010294</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.416534706927862</v>
+        <v>0.5555042447035206</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.490744325430228</v>
+        <v>6.209940314716789</v>
       </c>
       <c r="C17">
-        <v>0.4119981752739363</v>
+        <v>1.447171741066256</v>
       </c>
       <c r="D17">
-        <v>0.05763632972944777</v>
+        <v>0.02148469945362663</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.847983702904315</v>
+        <v>2.688282955331516</v>
       </c>
       <c r="G17">
-        <v>0.002464721018958822</v>
+        <v>0.0007514765874654383</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.262922841127462</v>
+        <v>1.28071637865628</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3434160464378948</v>
+        <v>0.5949587562754601</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.424026578883947</v>
+        <v>0.5740924514353622</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.450525762471557</v>
+        <v>6.042765129419934</v>
       </c>
       <c r="C18">
-        <v>0.4018212165735804</v>
+        <v>1.407589682074956</v>
       </c>
       <c r="D18">
-        <v>0.05780047355884221</v>
+        <v>0.02171973984115638</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.835814641036592</v>
+        <v>2.622904172163629</v>
       </c>
       <c r="G18">
-        <v>0.002465985975955076</v>
+        <v>0.0007537397782761866</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.259311268107822</v>
+        <v>1.254910147867946</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3401159043852005</v>
+        <v>0.5796819327799483</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.42839742477365</v>
+        <v>0.5850299977156723</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.436927782378234</v>
+        <v>5.986376571502035</v>
       </c>
       <c r="C19">
-        <v>0.3983761442903528</v>
+        <v>1.394241483824487</v>
       </c>
       <c r="D19">
-        <v>0.05785657592907256</v>
+        <v>0.02180192407568882</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.831716375326408</v>
+        <v>2.600929240487829</v>
       </c>
       <c r="G19">
-        <v>0.002466417189638861</v>
+        <v>0.0007545072473132658</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.258102710029192</v>
+        <v>1.246257841093666</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3390019257954009</v>
+        <v>0.5745342494958692</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.429887901755976</v>
+        <v>0.5887743264464689</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.498197076252666</v>
+        <v>6.240984910773136</v>
       </c>
       <c r="C20">
-        <v>0.4138820265814047</v>
+        <v>1.454523647953295</v>
       </c>
       <c r="D20">
-        <v>0.05760620056286569</v>
+        <v>0.02144245946385581</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.850246375035482</v>
+        <v>2.700461345486445</v>
       </c>
       <c r="G20">
-        <v>0.002464488290187892</v>
+        <v>0.0007510582639823581</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.263598043472939</v>
+        <v>1.285533851589477</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3440284421048148</v>
+        <v>0.5977981920038502</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.423222664645564</v>
+        <v>0.5720879442636218</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.705407223693385</v>
+        <v>7.112929186197618</v>
       </c>
       <c r="C21">
-        <v>0.4660300296580431</v>
+        <v>1.661232243735924</v>
       </c>
       <c r="D21">
-        <v>0.05680174047628483</v>
+        <v>0.02043112232044919</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.91404301433073</v>
+        <v>3.047149802633157</v>
       </c>
       <c r="G21">
-        <v>0.00245820999815311</v>
+        <v>0.0007395380782605091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.28305868178677</v>
+        <v>1.423951068385932</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3611540321805791</v>
+        <v>0.6778536334779375</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.401567033869028</v>
+        <v>0.5190590817401457</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.841850406931485</v>
+        <v>7.69714258693142</v>
       </c>
       <c r="C22">
-        <v>0.5001536695018558</v>
+        <v>1.800000890147828</v>
       </c>
       <c r="D22">
-        <v>0.0563035837617214</v>
+        <v>0.01993641964880766</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.956896325101155</v>
+        <v>3.284238629458798</v>
       </c>
       <c r="G22">
-        <v>0.002454256974226179</v>
+        <v>0.000732040449816058</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.29652660904344</v>
+        <v>1.519899671412432</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.372524757584614</v>
+        <v>0.7317985203665955</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.387967209947895</v>
+        <v>0.4868929380496638</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.768934160204878</v>
+        <v>7.383882305758277</v>
       </c>
       <c r="C23">
-        <v>0.4819371235270182</v>
+        <v>1.725562223490272</v>
       </c>
       <c r="D23">
-        <v>0.0565669204958219</v>
+        <v>0.02018385055841421</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.933917929597698</v>
+        <v>3.156644434212353</v>
       </c>
       <c r="G23">
-        <v>0.002456353082363958</v>
+        <v>0.0007360405157053436</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.289269566712818</v>
+        <v>1.468141672568578</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3664395956533326</v>
+        <v>0.7028437726006445</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.395174872479814</v>
+        <v>0.5038168122885338</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.494827392862248</v>
+        <v>6.226945835819322</v>
       </c>
       <c r="C24">
-        <v>0.4130303391831944</v>
+        <v>1.45119888890423</v>
       </c>
       <c r="D24">
-        <v>0.0576198121725966</v>
+        <v>0.02146150704428607</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.849223038773687</v>
+        <v>2.69495255425656</v>
       </c>
       <c r="G24">
-        <v>0.00246459345197189</v>
+        <v>0.0007512473648601967</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.263292530552562</v>
+        <v>1.283354308243545</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.343751521046002</v>
+        <v>0.5965140377533515</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.423585916000008</v>
+        <v>0.5729934034938111</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.203467285830527</v>
+        <v>5.027943757762728</v>
       </c>
       <c r="C25">
-        <v>0.3388546898735285</v>
+        <v>1.167542684809121</v>
       </c>
       <c r="D25">
-        <v>0.05887274697538913</v>
+        <v>0.02343196869957964</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.762762380218931</v>
+        <v>2.233679377814184</v>
       </c>
       <c r="G25">
-        <v>0.002474131843133928</v>
+        <v>0.00076790370728963</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.238449218272478</v>
+        <v>1.103428226760073</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3200346550794251</v>
+        <v>0.4874711857436722</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.45658939354789</v>
+        <v>0.6568968664485979</v>
       </c>
       <c r="O25">
         <v>0</v>
